--- a/howell_9.xlsx
+++ b/howell_9.xlsx
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Jul 20, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Sep 03, 2025.</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PlaceHolder62</t>
+          <t>PH84</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PlaceHolder55</t>
+          <t>PH21</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PlaceHolder16</t>
+          <t>PH30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PlaceHolder63</t>
+          <t>PH55</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PlaceHolder65</t>
+          <t>PH96</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PlaceHolder86</t>
+          <t>PH39</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PlaceHolder92</t>
+          <t>PH96</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PlaceHolder69</t>
+          <t>PH82</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PlaceHolder19</t>
+          <t>PH19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PlaceHolder77</t>
+          <t>PH34</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PlaceHolder38</t>
+          <t>PH21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PlaceHolder84</t>
+          <t>PH36</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -809,12 +809,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PlaceHolder48</t>
+          <t>PH11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PlaceHolder58</t>
+          <t>PH96</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -828,12 +828,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PlaceHolder62</t>
+          <t>PH73</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PlaceHolder42</t>
+          <t>PH94</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -847,12 +847,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PlaceHolder44</t>
+          <t>PH33</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PlaceHolder49</t>
+          <t>PH82</t>
         </is>
       </c>
       <c r="D10" s="4">
